--- a/doc/apis.xlsx
+++ b/doc/apis.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>TaskID</t>
   </si>
@@ -65,13 +65,46 @@
     <t>Registration</t>
   </si>
   <si>
-    <t>http://192.168.1.100:2424/master/Registration</t>
-  </si>
-  <si>
     <t>{"UserName":"Kalidasu","PassWord" :"test@123","EmailAddress" : "Kalidasu.Surada@gmail.com","FirstName" : "Kali","LastName" : "Surada","MobileNumber":"9849796848","Title":"Mr.Jaffa","RoleID" : "1","Addressone" : "Flat No:402, Sri Vinayaka Residency","addresstwo" : "Bhavani puram","city" : "Hyderabad","state" : "HYD","countryID" : "1","zipcode" : "580024","Phone" : "001 225 603 7842","fax" : "87985587","CompanyName" : "iCubix"}</t>
   </si>
   <si>
-    <t>http://192.168.1.100:2424/master/ValidateLogin</t>
+    <t>{"DeviceUDID":"JHGH"}</t>
+  </si>
+  <si>
+    <t>{"EngineNumber":"value","MahineNumber":"value","RFID":"value","UDID":"value"}</t>
+  </si>
+  <si>
+    <t>{"UDID":"value","ActivationCode":"value","MobileNumber":"value"}</t>
+  </si>
+  <si>
+    <t>GetDevices</t>
+  </si>
+  <si>
+    <t>getDevice</t>
+  </si>
+  <si>
+    <t>updateMachineDetails</t>
+  </si>
+  <si>
+    <t>sendActivationCode</t>
+  </si>
+  <si>
+    <t>http://192.168.1.100:2424/auth/ValidateLogin</t>
+  </si>
+  <si>
+    <t>http://192.168.1.100:2424/register/Registration</t>
+  </si>
+  <si>
+    <t>http://192.168.1.100:2424/register/GetDevices</t>
+  </si>
+  <si>
+    <t>http://192.168.1.100:2424/device/getDevice</t>
+  </si>
+  <si>
+    <t>http://192.168.1.100:2424/device/updateMachineDetails</t>
+  </si>
+  <si>
+    <t>http://192.168.1.100:2424/device/sendActivationCode</t>
   </si>
 </sst>
 </file>
@@ -469,7 +502,7 @@
   <dimension ref="A3:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,7 +541,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
@@ -560,80 +593,94 @@
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>6</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>7</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>8</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>9</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>10</v>
-      </c>
+      <c r="A14" s="4"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="C14" s="2"/>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>11</v>
-      </c>
+      <c r="A15" s="4"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="C15" s="2"/>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>12</v>
-      </c>
+      <c r="A16" s="4"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="C16" s="2"/>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>13</v>
-      </c>
+      <c r="A17" s="4"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="C17" s="2"/>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>14</v>
-      </c>
+      <c r="A18" s="4"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -752,6 +799,10 @@
     <hyperlink ref="C6" r:id="rId2"/>
     <hyperlink ref="C8" r:id="rId3"/>
     <hyperlink ref="C9" r:id="rId4"/>
+    <hyperlink ref="C10" r:id="rId5"/>
+    <hyperlink ref="C11" r:id="rId6"/>
+    <hyperlink ref="C12" r:id="rId7"/>
+    <hyperlink ref="C13" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
